--- a/ASME B18.3.xlsx
+++ b/ASME B18.3.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Streamlite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1M5HY6EmOOur1f787duiSAYyGB9EkEjeF\Specs\Standard For Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ASME B18.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,9 +65,6 @@
     <t>Key Engagement (Min)</t>
   </si>
   <si>
-    <t>Wall Thicckness (Min)</t>
-  </si>
-  <si>
     <t>1/4</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Hex Socket Size (Nom)</t>
+  </si>
+  <si>
+    <t>Wall Thickness (Min)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +192,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -228,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,44 +257,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,15 +584,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -626,31 +649,31 @@
         <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -660,58 +683,58 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>0.06</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="10">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="10">
         <v>0.06</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="10">
         <v>0.02</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="16">
         <v>6.2E-2</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="15">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="15">
         <v>2E-3</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="15">
         <v>0.05</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="17">
         <v>0.5</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="17">
         <v>0.51</v>
       </c>
     </row>
@@ -722,58 +745,58 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>0.112</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="10">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="10">
         <v>3.1E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="15">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="15">
         <v>6.2E-2</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="17">
         <v>6.25E-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="17">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -784,58 +807,58 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="10">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="16">
         <v>0.09</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="15">
         <v>0.10199999999999999</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="15">
         <v>7.8E-2</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="17">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="17">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -846,58 +869,58 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>0.154</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>0.161</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="10">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="16">
         <v>0.10199999999999999</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="15">
         <v>0.115</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="15">
         <v>7.8E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="17">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="17">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -908,58 +931,58 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>0.1075</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>0.112</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>0.183</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <v>0.108</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
         <v>0.112</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="16">
         <v>0.11700000000000001</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="15">
         <v>0.13</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="15">
         <v>9.4E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="17">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="17">
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
@@ -970,58 +993,58 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.1202</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>0.125</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="10">
         <v>0.121</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>0.125</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="16">
         <v>0.13200000000000001</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="15">
         <v>0.14499999999999999</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="15">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="15">
         <v>9.4E-2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="17">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="17">
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
@@ -1032,58 +1055,58 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.13289999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>0.216</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="10">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="10">
         <v>0.13400000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="10">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="10">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="16">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="15">
         <v>0.158</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="15">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="15">
         <v>0.109</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="17">
         <v>0.1094</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="17">
         <v>0.1111</v>
       </c>
     </row>
@@ -1094,58 +1117,58 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>0.1585</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>0.27</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="10">
         <v>0.159</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="10">
         <v>0.16400000000000001</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="10">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="10">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="16">
         <v>0.17199999999999999</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="15">
         <v>0.188</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="15">
         <v>0.02</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="15">
         <v>0.14099999999999999</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="17">
         <v>0.1406</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="17">
         <v>0.1426</v>
       </c>
     </row>
@@ -1156,58 +1179,58 @@
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>0.184</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>0.19</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <v>0.29799999999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10">
         <v>0.312</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="10">
         <v>0.185</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
         <v>0.19</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="10">
         <v>0.09</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="10">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="16">
         <v>0.20200000000000001</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="15">
         <v>0.218</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="15">
         <v>2.4E-2</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="15">
         <v>0.156</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="17">
         <v>0.15620000000000001</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="17">
         <v>0.15870000000000001</v>
       </c>
     </row>
@@ -1218,50 +1241,50 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="8">
         <v>0.20949999999999999</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="7">
         <v>0.216</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>0.314</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.21</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="10">
         <v>0.216</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="10">
         <v>0.10299999999999999</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="10">
         <v>0.01</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5">
+      <c r="N11" s="16"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15">
         <v>0.156</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="17">
         <v>0.15620000000000001</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="17">
         <v>0.15870000000000001</v>
       </c>
     </row>
@@ -1272,58 +1295,58 @@
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.24349999999999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>0.25</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>0.35399999999999998</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>0.375</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="10">
         <v>0.24399999999999999</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="10">
         <v>0.25</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <v>0.12</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="10">
         <v>0.01</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="16">
         <v>0.26100000000000001</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="15">
         <v>0.27800000000000002</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="15">
         <v>2.4E-2</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="15">
         <v>0.188</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="17">
         <v>0.1875</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="17">
         <v>0.19</v>
       </c>
     </row>
@@ -1334,58 +1357,58 @@
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
         <v>0.30349999999999999</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="7">
         <v>3125</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>0.44600000000000001</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="10">
         <v>0.312</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <v>0.151</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <v>0.01</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="16">
         <v>0.32900000000000001</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="15">
         <v>0.34699999999999998</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="15">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="15">
         <v>0.25</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="17">
         <v>0.25</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="17">
         <v>0.253</v>
       </c>
     </row>
@@ -1396,58 +1419,58 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.36780000000000002</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="7">
         <v>0.375</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>0.54</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="10">
         <v>0.375</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>0.04</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="10">
         <v>0.182</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="10">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="10">
         <v>0.01</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="16">
         <v>0.39700000000000002</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <v>0.41499999999999998</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="15">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="15">
         <v>0.312</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="17">
         <v>0.3125</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="17">
         <v>0.316</v>
       </c>
     </row>
@@ -1458,58 +1481,58 @@
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.4294</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="7">
         <v>0.4375</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>0.63100000000000001</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>0.65600000000000003</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="10">
         <v>0.43</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="10">
         <v>0.438</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="10">
         <v>0.21299999999999999</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="10">
         <v>0.16600000000000001</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="16">
         <v>0.46500000000000002</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <v>0.48399999999999999</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="15">
         <v>3.9E-2</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="15">
         <v>0.375</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="17">
         <v>0.375</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="17">
         <v>0.379</v>
       </c>
     </row>
@@ -1520,58 +1543,58 @@
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8">
         <v>0.4919</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="7">
         <v>0.5</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>0.75</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="10">
         <v>0.49199999999999999</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="10">
         <v>0.5</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="20">
+        <v>0.245</v>
+      </c>
+      <c r="L16" s="20">
         <v>0.19</v>
       </c>
-      <c r="L16" s="14">
-        <v>0.245</v>
-      </c>
-      <c r="M16" s="14">
+      <c r="M16" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="16">
         <v>0.53100000000000003</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <v>0.55200000000000005</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="15">
         <v>0.375</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="17">
         <v>0.375</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="17">
         <v>0.379</v>
       </c>
     </row>
@@ -1582,50 +1605,50 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.55379999999999996</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="7">
         <v>0.5625</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="10">
         <v>0.56200000000000006</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>6.2E-2</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="20">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L17" s="20">
         <v>0.214</v>
       </c>
-      <c r="L17" s="14">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="M17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>0.438</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="N17" s="16"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="S17" s="17">
         <v>0.4375</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="17">
         <v>0.442</v>
       </c>
     </row>
@@ -1636,10 +1659,10 @@
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11">
         <v>0.61629999999999996</v>
       </c>
       <c r="E18" s="10">
@@ -1657,37 +1680,37 @@
       <c r="I18" s="10">
         <v>0.625</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>0.7</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="20">
+        <v>0.307</v>
+      </c>
+      <c r="L18" s="20">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L18" s="5">
-        <v>0.307</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="M18" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="16">
         <v>0.66400000000000003</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="15">
         <v>0.68899999999999995</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="15">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="15">
         <v>0.5</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="17">
         <v>0.5</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="17">
         <v>0.505</v>
       </c>
     </row>
@@ -1698,10 +1721,10 @@
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11">
         <v>0.74060000000000004</v>
       </c>
       <c r="E19" s="10">
@@ -1719,37 +1742,37 @@
       <c r="I19" s="10">
         <v>0.75</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="L19" s="20">
         <v>0.28499999999999998</v>
       </c>
-      <c r="L19" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="M19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="16">
         <v>0.8</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="15">
         <v>0.82799999999999996</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="15">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="15">
         <v>0.625</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="17">
         <v>0.625</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="17">
         <v>0.63100000000000001</v>
       </c>
     </row>
@@ -1760,10 +1783,10 @@
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11">
         <v>0.86470000000000002</v>
       </c>
       <c r="E20" s="10">
@@ -1781,37 +1804,37 @@
       <c r="I20" s="10">
         <v>0.875</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="10">
         <v>0.1</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="20">
+        <v>0.432</v>
+      </c>
+      <c r="L20" s="20">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L20" s="5">
-        <v>0.432</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="M20" s="10">
         <v>0.02</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="16">
         <v>0.93200000000000005</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="15">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="15">
         <v>0.75</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="17">
         <v>0.75</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="17">
         <v>0.75700000000000001</v>
       </c>
     </row>
@@ -1822,10 +1845,10 @@
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <v>0.98860000000000003</v>
       </c>
       <c r="E21" s="10">
@@ -1843,37 +1866,37 @@
       <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="10">
         <v>0.114</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="L21" s="20">
         <v>0.38</v>
       </c>
-      <c r="L21" s="5">
-        <v>0.495</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="M21" s="10">
         <v>0.02</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="16">
         <v>1.0680000000000001</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="15">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="15">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="15">
         <v>0.75</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="17">
         <v>0.75</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="17">
         <v>0.75700000000000001</v>
       </c>
     </row>
@@ -1884,10 +1907,10 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
         <v>1.1086</v>
       </c>
       <c r="E22" s="10">
@@ -1905,37 +1928,37 @@
       <c r="I22" s="10">
         <v>1.125</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="10">
         <v>0.129</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="20">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L22" s="20">
         <v>0.42799999999999999</v>
       </c>
-      <c r="L22" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="M22" s="5">
+      <c r="M22" s="10">
         <v>0.02</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="16">
         <v>1.198</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="15">
         <v>1.2350000000000001</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="15">
         <v>9.4E-2</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="15">
         <v>3.9E-2</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="15">
         <v>0.875</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="17">
         <v>0.875</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="17">
         <v>0.88500000000000001</v>
       </c>
     </row>
@@ -1946,10 +1969,10 @@
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="11">
         <v>1.2336</v>
       </c>
       <c r="E23" s="10">
@@ -1967,37 +1990,37 @@
       <c r="I23" s="10">
         <v>1.25</v>
       </c>
-      <c r="J23" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="J23" s="20">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L23" s="20">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L23" s="5">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="M23" s="10">
         <v>0.02</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="16">
         <v>1.333</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="15">
         <v>1.37</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="15">
         <v>0.10199999999999999</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="15">
         <v>0.875</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="17">
         <v>0.875</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="17">
         <v>0.88500000000000001</v>
       </c>
     </row>
@@ -2008,58 +2031,58 @@
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="14">
         <v>1.3568</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>1.375</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="10">
         <v>2.0379999999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="10">
         <v>2.0619999999999998</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="10">
         <v>1.36</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="10">
         <v>1.375</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="10">
         <v>0.16</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="20">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L24" s="20">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L24" s="5">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="M24" s="10">
         <v>0.02</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="16">
         <v>1.466</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="15">
         <v>1.5049999999999999</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="15">
         <v>0.11</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="15">
         <v>1</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="17">
         <v>1</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="17">
         <v>1.02</v>
       </c>
     </row>
@@ -2070,58 +2093,58 @@
       <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="14">
         <v>1.4818</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>1.5</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="10">
         <v>2.2240000000000002</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="10">
         <v>2.25</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="10">
         <v>1.4850000000000001</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="10">
         <v>1.5</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="20">
+        <v>0.745</v>
+      </c>
+      <c r="L25" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L25" s="5">
-        <v>0.745</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="M25" s="10">
         <v>0.02</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="16">
         <v>1.601</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="15">
         <v>1.64</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="15">
         <v>0.11899999999999999</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="15">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="15">
         <v>1</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="17">
         <v>1</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="17">
         <v>1.02</v>
       </c>
     </row>
@@ -2132,58 +2155,58 @@
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="14">
         <v>1.7295</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="7">
         <v>1.75</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="10">
         <v>2.597</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="10">
         <v>2.625</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="10">
         <v>1.734</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="10">
         <v>1.75</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="10">
         <v>0.20699999999999999</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="L26" s="20">
         <v>0.66500000000000004</v>
       </c>
-      <c r="L26" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="M26" s="5">
+      <c r="M26" s="10">
         <v>0.02</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="16">
         <v>1.869</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="15">
         <v>1.91</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="15">
         <v>0.13600000000000001</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="15">
         <v>6.2E-2</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="15">
         <v>1.25</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="17">
         <v>1.25</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="17">
         <v>1.2749999999999999</v>
       </c>
     </row>
@@ -2194,58 +2217,58 @@
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="14">
         <v>1.978</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="9">
         <v>2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="10">
         <v>2.97</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="10">
         <v>3</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="10">
         <v>1.9830000000000001</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="10">
         <v>2</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="10">
         <v>0.23799999999999999</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="20">
+        <v>0.995</v>
+      </c>
+      <c r="L27" s="20">
         <v>0.76</v>
       </c>
-      <c r="L27" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="M27" s="5">
+      <c r="M27" s="10">
         <v>0.02</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="16">
         <v>2.1280000000000001</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="15">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="15">
         <v>0.153</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="15">
         <v>1.5</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="17">
         <v>1.5</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="17">
         <v>1.53</v>
       </c>
     </row>
@@ -2256,58 +2279,58 @@
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="14">
         <v>2.2280000000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <v>2.25</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="10">
         <v>3.3439999999999999</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="10">
         <v>3.375</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="10">
         <v>2.2320000000000002</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="10">
         <v>2.25</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="10">
         <v>0.26900000000000002</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L28" s="20">
         <v>0.85499999999999998</v>
       </c>
-      <c r="L28" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M28" s="5">
+      <c r="M28" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="16">
         <v>2.3980000000000001</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="15">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="15">
         <v>0.17</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="15">
         <v>0.08</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="15">
         <v>1.75</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="17">
         <v>1.75</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="17">
         <v>1.7849999999999999</v>
       </c>
     </row>
@@ -2318,58 +2341,58 @@
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="14">
         <v>2.4762</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>2.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="10">
         <v>3.7170000000000001</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="10">
         <v>3.75</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="10">
         <v>2.4809999999999999</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="10">
         <v>2.5</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="10">
         <v>0.3</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="20">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="L29" s="20">
         <v>0.95</v>
       </c>
-      <c r="L29" s="5">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="M29" s="5">
+      <c r="M29" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="16">
         <v>2.6619999999999999</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="15">
         <v>2.72</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="15">
         <v>0.187</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="15">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="15">
         <v>1.75</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="17">
         <v>1.75</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="17">
         <v>1.7849999999999999</v>
       </c>
     </row>
@@ -2380,58 +2403,58 @@
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="C30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="14">
         <v>2.7262</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>2.75</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="10">
         <v>4.09</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="10">
         <v>4.125</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="10">
         <v>2.73</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="10">
         <v>2.75</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="10">
         <v>0.33200000000000002</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="20">
+        <v>1.37</v>
+      </c>
+      <c r="L30" s="20">
         <v>1.0449999999999999</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.37</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="M30" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="16">
         <v>2.9359999999999999</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="15">
         <v>2.99</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="15">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="15">
         <v>2</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="17">
         <v>2</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="17">
         <v>2.04</v>
       </c>
     </row>
@@ -2442,58 +2465,58 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="14">
         <v>2.9762</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="10">
         <v>4.4640000000000004</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="10">
         <v>4.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="10">
         <v>2.9790000000000001</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="10">
         <v>3</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="10">
         <v>0.36299999999999999</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="20">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="L31" s="20">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L31" s="5">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="M31" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="16">
         <v>3.206</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="15">
         <v>3.26</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="15">
         <v>0.221</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="15">
         <v>0.106</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="15">
         <v>2.25</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="17">
         <v>2.25</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="17">
         <v>2.2949999999999999</v>
       </c>
     </row>
@@ -2504,58 +2527,58 @@
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="14">
         <v>3.2262</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <v>3.25</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="10">
         <v>4.8369999999999997</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="10">
         <v>4.875</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="10">
         <v>3.2280000000000002</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="10">
         <v>3.25</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="10">
         <v>0.39400000000000002</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="20">
+        <v>1.62</v>
+      </c>
+      <c r="L32" s="20">
         <v>1.2350000000000001</v>
       </c>
-      <c r="L32" s="5">
-        <v>1.62</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="M32" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="16">
         <v>3.476</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="15">
         <v>3.53</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="15">
         <v>0.23799999999999999</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="15">
         <v>0.114</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="15">
         <v>2.25</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="17">
         <v>2.25</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="17">
         <v>2.2949999999999999</v>
       </c>
     </row>
@@ -2566,58 +2589,58 @@
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14">
         <v>3.4762</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="9">
         <v>3.5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="10">
         <v>5.2110000000000003</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="10">
         <v>5.25</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="10">
         <v>3.4780000000000002</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="10">
         <v>3.5</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="10">
         <v>0.42599999999999999</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="20">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="L33" s="20">
         <v>1.33</v>
       </c>
-      <c r="L33" s="5">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="M33" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="16">
         <v>3.746</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="15">
         <v>3.8</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="15">
         <v>0.255</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="15">
         <v>0.124</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="15">
         <v>2.75</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="17">
         <v>2.75</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="17">
         <v>2.8050000000000002</v>
       </c>
     </row>
@@ -2628,58 +2651,58 @@
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="14">
         <v>3.7262</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <v>3.75</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="10">
         <v>5.5839999999999996</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="10">
         <v>5.625</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="10">
         <v>3.7269999999999999</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="10">
         <v>3.75</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="10">
         <v>0.45800000000000002</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="20">
+        <v>1.87</v>
+      </c>
+      <c r="L34" s="20">
         <v>1.425</v>
       </c>
-      <c r="L34" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="M34" s="5">
+      <c r="M34" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="16">
         <v>4.016</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="15">
         <v>4.07</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="15">
         <v>0.27200000000000002</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="15">
         <v>0.13400000000000001</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="15">
         <v>2.75</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="17">
         <v>2.75</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="17">
         <v>2.8050000000000002</v>
       </c>
     </row>
@@ -2690,63 +2713,63 @@
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <v>4</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="14">
         <v>3.9762</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="9">
         <v>4</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="10">
         <v>5.9580000000000002</v>
       </c>
-      <c r="G35" s="5">
-        <v>6</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="10">
+        <v>6</v>
+      </c>
+      <c r="H35" s="10">
         <v>3.976</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="10">
         <v>4</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="10">
         <v>0.48899999999999999</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="20">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="L35" s="20">
         <v>1.52</v>
       </c>
-      <c r="L35" s="5">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="M35" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="18">
         <v>4.2859999999999996</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="15">
         <v>4.34</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="15">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="15">
         <v>0.14299999999999999</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="15">
         <v>3</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="17">
         <v>3</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="17">
         <v>3.06</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D36" s="18"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
